--- a/_Auswertung_.xlsx
+++ b/_Auswertung_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Golf</t>
   </si>
@@ -22,10 +22,16 @@
     <t>Vw</t>
   </si>
   <si>
-    <t>Polo</t>
+    <t>rw</t>
   </si>
   <si>
-    <t>Alpha</t>
+    <t>vb</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hers</t>
   </si>
 </sst>
 </file>
@@ -854,17 +860,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -874,8 +880,24 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
